--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 12C/PRUEBA_TEMPERATURA_23_12C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 12C/PRUEBA_TEMPERATURA_23_12C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Datos crudos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,124 +73,106 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-11 04:24:16</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:25:18</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:26:20</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:27:22</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:28:24</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:29:26</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:30:28</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:31:30</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:32:32</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:33:34</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:34:36</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:35:38</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:36:40</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:37:42</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:38:44</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:39:46</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:40:48</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:41:50</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:42:52</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:43:54</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:44:56</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:45:58</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:47:00</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:48:02</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:49:04</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:50:06</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:51:08</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:52:10</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:53:12</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:54:14</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:55:16</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:56:18</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:57:20</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:58:22</t>
-  </si>
-  <si>
-    <t>2023-12-11 04:59:24</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:00:26</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:01:28</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:02:30</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:03:32</t>
-  </si>
-  <si>
-    <t>2023-12-11 05:04:34</t>
+    <t>2023-12-10 06:24:56</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:25:57</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:26:59</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:28:00</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:29:02</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:30:04</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:31:05</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:32:07</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:33:09</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:34:10</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:35:12</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:36:14</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:37:15</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:38:17</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:39:18</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:40:20</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:41:22</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:42:23</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:43:25</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:44:27</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:45:28</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:46:30</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:47:32</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:48:33</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:49:35</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:50:36</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:51:38</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:52:40</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:53:41</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:54:43</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:55:45</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:56:46</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:57:48</t>
+  </si>
+  <si>
+    <t>2023-12-10 06:58:50</t>
   </si>
 </sst>
 </file>
@@ -857,129 +839,111 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$41</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>28.688811188811201</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25.673076923076898</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.608391608391599</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.034965034965001</c:v>
+                  <c:v>23.968531468531399</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>20.9527972027972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.166083916083899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.117132867132899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.068181818181799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.199300699300601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.412587412587399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.805944055944</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.281468531468501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.281468531468501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.625874125874098</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.625874125874098</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.363636363636299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.494755244755201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.363636363636299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.232517482517402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.232517482517402</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.494755244755201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.625874125874098</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.1013986013986</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.232517482517402</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.363636363636299</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.9702797202797</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.232517482517402</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.1013986013986</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.9702797202797</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.1013986013986</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.1013986013986</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.232517482517402</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>18.592657342657301</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.281468531468501</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.756993006993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.1013986013986</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.7080419580419</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.576923076923</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.1835664335664</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.921328671328601</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.0524475524475</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.0524475524475</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.790209790209801</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.790209790209801</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14.527972027972</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.659090909090899</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14.265734265734199</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.527972027972</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14.3968531468531</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.3968531468531</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14.265734265734199</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14.3968531468531</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14.659090909090899</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>14.3968531468531</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14.659090909090899</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14.3968531468531</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14.265734265734199</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14.265734265734199</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14.527972027972</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>14.265734265734199</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14.527972027972</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>14.265734265734199</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.527972027972</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>14.265734265734199</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>14.527972027972</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>14.134615384615399</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14.527972027972</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>16.756993006993</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>18.592657342657301</c:v>
+                  <c:v>19.2482517482517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,7 +1031,6 @@
         <c:axId val="465779280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="26"/>
           <c:min val="12"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1237,37 +1200,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>14.265734265734199</c:v>
+                  <c:v>16.625874125874098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.265734265734199</c:v>
+                  <c:v>16.1013986013986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.527972027972</c:v>
+                  <c:v>16.232517482517402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.265734265734199</c:v>
+                  <c:v>16.363636363636299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.527972027972</c:v>
+                  <c:v>15.9702797202797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.265734265734199</c:v>
+                  <c:v>16.232517482517402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.527972027972</c:v>
+                  <c:v>16.1013986013986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.265734265734199</c:v>
+                  <c:v>15.9702797202797</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.527972027972</c:v>
+                  <c:v>16.1013986013986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.134615384615399</c:v>
+                  <c:v>16.1013986013986</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.527972027972</c:v>
+                  <c:v>16.232517482517402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,10 +1327,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14.373013350286033</c:v>
+                  <c:v>16.184837889383314</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.373013350286033</c:v>
+                  <c:v>16.184837889383314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3089,10 +3052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3138,17 +3101,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.673076923076898</v>
+        <v>28.688811188811201</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>1.2199074073578231E-2</v>
+        <v>9.9768518484779634E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3165,14 +3128,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.608391608391599</v>
+        <v>25.673076923076898</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
         <f>COUNT(E:E)-2</f>
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3189,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.034965034965001</v>
+        <v>23.968531468531399</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3206,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.592657342657301</v>
+        <v>20.9527972027972</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3223,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.281468531468501</v>
+        <v>20.166083916083899</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3240,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.756993006993</v>
+        <v>19.641608391608401</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3257,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>16.1013986013986</v>
+        <v>19.117132867132899</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3274,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.7080419580419</v>
+        <v>18.068181818181799</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3291,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.576923076923</v>
+        <v>18.199300699300601</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3308,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.1835664335664</v>
+        <v>17.412587412587399</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3325,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.921328671328601</v>
+        <v>17.805944055944</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3342,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.0524475524475</v>
+        <v>17.281468531468501</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3359,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.0524475524475</v>
+        <v>17.281468531468501</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3376,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.790209790209801</v>
+        <v>16.625874125874098</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3393,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.790209790209801</v>
+        <v>16.625874125874098</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3410,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.527972027972</v>
+        <v>16.363636363636299</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3427,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.659090909090899</v>
+        <v>16.494755244755201</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3444,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.265734265734199</v>
+        <v>16.363636363636299</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3461,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.527972027972</v>
+        <v>16.232517482517402</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3478,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.3968531468531</v>
+        <v>16.232517482517402</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3495,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.3968531468531</v>
+        <v>16.494755244755201</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3512,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.265734265734199</v>
+        <v>16.625874125874098</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3529,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.3968531468531</v>
+        <v>16.1013986013986</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3546,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.659090909090899</v>
+        <v>16.232517482517402</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3563,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>14.3968531468531</v>
+        <v>16.363636363636299</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3580,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>14.659090909090899</v>
+        <v>15.9702797202797</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3597,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>14.3968531468531</v>
+        <v>16.232517482517402</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3614,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>14.265734265734199</v>
+        <v>16.1013986013986</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3631,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>14.265734265734199</v>
+        <v>15.9702797202797</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3648,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>14.527972027972</v>
+        <v>16.1013986013986</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3665,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>14.265734265734199</v>
+        <v>16.1013986013986</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3682,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>14.527972027972</v>
+        <v>16.232517482517402</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3699,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>14.265734265734199</v>
+        <v>18.592657342657301</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3716,109 +3679,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>14.527972027972</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>23</v>
-      </c>
-      <c r="B36">
-        <v>12</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>14.265734265734199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>23</v>
-      </c>
-      <c r="B37">
-        <v>12</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>14.527972027972</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>23</v>
-      </c>
-      <c r="B38">
-        <v>12</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>14.134615384615399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>23</v>
-      </c>
-      <c r="B39">
-        <v>12</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>14.527972027972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>23</v>
-      </c>
-      <c r="B40">
-        <v>12</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>16.756993006993</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>23</v>
-      </c>
-      <c r="B41">
-        <v>12</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>18.592657342657301</v>
+        <v>19.2482517482517</v>
       </c>
     </row>
   </sheetData>
@@ -3831,8 +3692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3857,45 +3718,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:52:10</v>
+        <v>2023-12-10 06:46:30</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>14.265734265734199</v>
+        <v>16.625874125874098</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>14.373013350286033</v>
+        <v>16.184837889383314</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:53:12</v>
+        <v>2023-12-10 06:47:32</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>14.265734265734199</v>
+        <v>16.1013986013986</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>14.373013350286033</v>
+        <v>16.184837889383314</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:54:14</v>
+        <v>2023-12-10 06:48:33</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>14.527972027972</v>
+        <v>16.232517482517402</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3904,35 +3765,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:55:16</v>
+        <v>2023-12-10 06:49:35</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>14.265734265734199</v>
+        <v>16.363636363636299</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.15311386576604064</v>
+        <v>0.1879416829958753</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:56:18</v>
+        <v>2023-12-10 06:50:36</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>14.527972027972</v>
+        <v>15.9702797202797</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:57:20</v>
+        <v>2023-12-10 06:51:38</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>14.265734265734199</v>
+        <v>16.232517482517402</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3941,36 +3802,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:58:22</v>
+        <v>2023-12-10 06:52:40</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>14.527972027972</v>
+        <v>16.1013986013986</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>14.527972027972</v>
+        <v>16.625874125874098</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 04:59:24</v>
+        <v>2023-12-10 06:53:41</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>14.265734265734199</v>
+        <v>15.9702797202797</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:00:26</v>
+        <v>2023-12-10 06:54:43</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>14.527972027972</v>
+        <v>16.1013986013986</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3979,25 +3840,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:01:28</v>
+        <v>2023-12-10 06:55:45</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>14.134615384615399</v>
+        <v>16.1013986013986</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>14.134615384615399</v>
+        <v>15.9702797202797</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-11 05:02:30</v>
+        <v>2023-12-10 06:56:46</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>14.527972027972</v>
+        <v>16.232517482517402</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
